--- a/data/Subset 1/MOLLY MCNINCH pt 3.xlsx
+++ b/data/Subset 1/MOLLY MCNINCH pt 3.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
